--- a/imageCreationExcel/back/0901-1/0901-1_16.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_16.xlsx
@@ -486,24 +486,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5277640487255946</v>
+        <v>21.86706999872201</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>15.80066864467995</v>
+        <v>0.9386226920592081</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_1_gamma0.53_equalization16.0.jpg</t>
+          <t>1_S_brightness22.0_gamma0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -530,41 +530,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.724871863338342</v>
+        <v>1.141668453151718</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6969990204743134</v>
+        <v>0.09253956145576248</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>13.10205507006953</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_J_brightness4.7_gamma0.7.jpg</t>
+          <t>2_I_contrast1.1_sharpness0.093_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -574,39 +572,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8963111790375166</v>
+        <v>1.179078145799837</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.293515010824227</v>
+        <v>21.29671825909688</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9716370678593114</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_E_sharpness0.9_brightness4.3_gamma0.97.jpg</t>
+          <t>3_0_contrast1.2_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -616,24 +616,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9102350985181626</v>
+        <v>0.6375514867155881</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9343241332603313</v>
+        <v>0.990869719636372</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_2_contrast0.91_gamma0.93.jpg</t>
+          <t>4_Q_gamma0.64_contrast0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -660,39 +660,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.843686773795813</v>
+        <v>4.848848303804793</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>27.56452448955802</v>
+        <v>1.072110550727826</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1.051181663841996</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_I_sharpness0.84_brightness28.0_contrast1.1.jpg</t>
+          <t>5_0_brightness4.8_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -702,39 +704,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8029382202647691</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0.3909479986348522</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="F7" t="n">
-        <v>13.17469810925927</v>
+        <v>0.5575681312322325</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>0.858727557412833</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_3_sharpness0.39_brightness13.0_contrast0.86.jpg</t>
+          <t>6_Q_contrast0.8_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -744,41 +748,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9877220319746971</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>0.8586920234107293</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F8" t="n">
-        <v>0.6022008121372806</v>
+        <v>0.5353662971202235</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8491246499658223</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_P_sharpness0.86_gamma0.6.jpg</t>
+          <t>7_I_gamma0.99_sharpness0.54_brightness0.85.jpg</t>
         </is>
       </c>
     </row>
@@ -788,7 +790,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -797,30 +799,32 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17.75611190930378</v>
+        <v>25.43096111538141</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9707677951493898</v>
+        <v>0.8037996421261481</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>0.9030624405125287</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_T_brightness18.0_gamma0.97_contrast0.9.jpg</t>
+          <t>8_1_brightness25.0_contrast0.8.jpg</t>
         </is>
       </c>
     </row>
@@ -830,41 +834,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9579278089105637</v>
+        <v>0.6270224400543708</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.599452995219006</v>
+        <v>0.9832868888780948</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4.506961187647358</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_C_sharpness0.96_brightness1.6.jpg</t>
+          <t>9_S_gamma0.63_contrast0.98_equalization4.5.jpg</t>
         </is>
       </c>
     </row>
@@ -874,24 +876,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>21.30940904757593</v>
+        <v>0.9190520164413118</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9649239393340796</v>
+        <v>7.500881591366873</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -908,7 +910,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_2_brightness21.0_contrast0.96.jpg</t>
+          <t>10_0_sharpness0.92_equalization7.5.jpg</t>
         </is>
       </c>
     </row>
@@ -918,16 +920,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3748642936019252</v>
+        <v>0.8296386621219125</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -935,7 +937,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.6564792485577264</v>
+        <v>29.59166241836569</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -948,11 +950,11 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_B_sharpness0.37_brightness0.66.jpg</t>
+          <t>11_2_gamma0.83_brightness30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -962,41 +964,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.0152857710427321</v>
+        <v>5.602984333846408</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>29.34999227570185</v>
+        <v>0.7854111116776996</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1.024085877237142</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_Q_sharpness0.015_brightness29.0.jpg</t>
+          <t>12_P_brightness5.6_gamma0.79_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1006,24 +1006,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8088673457839529</v>
+        <v>0.7494040908006934</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.1730691193078175</v>
+        <v>26.09633194875422</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_S_gamma0.81_sharpness0.17.jpg</t>
+          <t>13_1_sharpness0.75_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1050,39 +1050,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8984165223808023</v>
+        <v>1.056321064680001</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>8.949046222974285</v>
+        <v>0.126863669479879</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.6981086437740687</v>
+        <v>12.74676912452061</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_9_gamma0.9_brightness8.9_sharpness0.7.jpg</t>
+          <t>14_Q_contrast1.1_sharpness0.13_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1092,16 +1092,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.3869041066189347</v>
+        <v>1.022836158153498</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9662340305216829</v>
+        <v>0.597226210128347</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1117,14 +1117,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5.47478187320209</v>
+        <v>16.99735495575204</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_J_sharpness0.39_gamma0.97_equalization5.5.jpg</t>
+          <t>15_T_contrast1.0_gamma0.6_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1134,16 +1134,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.06822176633832</v>
+        <v>0.6464984127712574</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.06715049400446738</v>
+        <v>0.09647716476314083</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1164,11 +1164,11 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_1_contrast1.1_sharpness0.067.jpg</t>
+          <t>16_9_gamma0.65_sharpness0.096.jpg</t>
         </is>
       </c>
     </row>
@@ -1178,24 +1178,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.963972437287918</v>
+        <v>0.8695844821387521</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8381645919112146</v>
+        <v>0.08430975398922236</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1203,14 +1203,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>26.75054043593769</v>
+        <v>6.649413343086181</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_E_gamma0.96_contrast0.84_equalization27.0.jpg</t>
+          <t>17_P_contrast0.87_sharpness0.084_equalization6.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1229,30 +1229,32 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8459897179806167</v>
+        <v>0.5116856506925282</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8332476694856206</v>
+        <v>28.24327713940892</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1.0818583149723</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_P_sharpness0.85_gamma0.83_contrast1.1.jpg</t>
+          <t>18_E_sharpness0.51_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1262,24 +1264,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2432134877097949</v>
+        <v>0.5836725032707574</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10.78015205526711</v>
+        <v>17.03374156621574</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1296,7 +1298,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_8_sharpness0.24_brightness11.0.jpg</t>
+          <t>19_Q_gamma0.58_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1306,16 +1308,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.6884394153933817</v>
+        <v>0.8682824257380177</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1323,7 +1325,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7.00102191271588</v>
+        <v>4.553234293475215</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1340,7 +1342,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_2_sharpness0.69_brightness7.0.jpg</t>
+          <t>20_T_contrast0.87_brightness4.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1350,41 +1352,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5594367714310986</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0.8610490564416879</v>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>0.008797826748451865</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>4.928307287405993</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H22" t="n">
+        <v>14.0748977641163</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_P_sharpness0.86_equalization4.9.jpg</t>
+          <t>21_9_gamma0.56_sharpness0.0088_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1394,24 +1394,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.888487884331576</v>
+        <v>6.794800455217301</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>15.530765551148</v>
+        <v>0.8510852755679085</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1424,11 +1424,11 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_1_gamma0.89_equalization16.0.jpg</t>
+          <t>22_T_brightness6.8_contrast0.85.jpg</t>
         </is>
       </c>
     </row>
@@ -1438,24 +1438,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14.09228056813934</v>
+        <v>0.4330180153832202</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.6389637611682489</v>
+        <v>0.8260134440421322</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1468,11 +1468,11 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_9_brightness14.0_sharpness0.64.jpg</t>
+          <t>23_1_sharpness0.43_gamma0.83.jpg</t>
         </is>
       </c>
     </row>
@@ -1482,24 +1482,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.169414840643067</v>
+        <v>1.025074564645262</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.6751420001064123</v>
+        <v>1.128229963423836</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1512,11 +1512,11 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_9_contrast1.2_sharpness0.68.jpg</t>
+          <t>24_3_gamma1.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1526,24 +1526,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9543053194896673</v>
+        <v>7.299693113275803</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8.866107980604404</v>
+        <v>1.03298528222877</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1556,11 +1556,11 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_1_gamma0.95_brightness8.9.jpg</t>
+          <t>25_E_brightness7.3_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1570,39 +1570,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.043158809857402</v>
+        <v>1.075720270328842</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.3078251404369876</v>
+        <v>17.24879511145819</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>23.7607614080945</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_3_contrast1.0_sharpness0.31_equalization24.0.jpg</t>
+          <t>26_S_gamma1.1_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1617,34 +1619,34 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8232619142040349</v>
+        <v>28.53173213987866</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0478182600812016</v>
+        <v>0.5614393313176993</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>18.46505227938286</v>
+        <v>0.8276292614348646</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_9_contrast0.82_sharpness0.048_brightness18.0.jpg</t>
+          <t>27_9_brightness29.0_gamma0.56_contrast0.83.jpg</t>
         </is>
       </c>
     </row>
@@ -1654,39 +1656,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>29.75191610152136</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8051724849819604</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>0.4810167317096612</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.9426671922423722</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="H29" t="n">
-        <v>14.68873472754976</v>
+        <v>0.5953978817485061</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_S_sharpness0.48_contrast0.94_equalization15.0.jpg</t>
+          <t>28_T_brightness30.0_contrast0.81_sharpness0.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1696,24 +1698,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.13512042796641</v>
+        <v>0.9217556014862169</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.10973723765836</v>
+        <v>22.03583577122777</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1730,7 +1732,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_E_contrast1.1_equalization4.1.jpg</t>
+          <t>29_1_sharpness0.92_brightness22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1745,19 +1747,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.5103015687649394</v>
+        <v>16.56066909818406</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>6.514010832041891</v>
+        <v>1.017562022984596</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1774,7 +1776,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_1_sharpness0.51_equalization6.5.jpg</t>
+          <t>30_1_brightness17.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1784,24 +1786,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.06552453338387221</v>
+        <v>0.8306584206721694</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.105540178755357</v>
+        <v>24.569668897362</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1818,7 +1820,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_P_sharpness0.066_contrast1.1.jpg</t>
+          <t>31_B_gamma0.83_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1828,24 +1830,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.050558710523229</v>
+        <v>0.39709097835149</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>28.19485757153798</v>
+        <v>1.139228450538261</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1862,7 +1864,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_0_gamma1.1_equalization28.0.jpg</t>
+          <t>32_8_sharpness0.4_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,24 +1874,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.04190821737548112</v>
+        <v>1.171820354064366</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6.734642604360261</v>
+        <v>1.050425499323729</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1902,11 +1904,11 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_B_sharpness0.042_brightness6.7.jpg</t>
+          <t>33_9_contrast1.2_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1921,34 +1923,34 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8479567908371244</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.127224081132897</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>0.0675634671460672</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0.8191510415756222</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="H35" t="n">
-        <v>1.057287369377995</v>
+        <v>0.7080951771987457</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_P_sharpness0.068_gamma0.82_contrast1.1.jpg</t>
+          <t>34_P_gamma0.85_contrast1.1_sharpness0.71.jpg</t>
         </is>
       </c>
     </row>
@@ -1958,24 +1960,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.9478638885989052</v>
+        <v>14.79624903908957</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>11.15898033695517</v>
+        <v>1.080969418803643</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1992,7 +1994,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_7_gamma0.95_equalization11.0.jpg</t>
+          <t>35_8_brightness15.0_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2002,24 +2004,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9638134592347435</v>
+        <v>1.161132687976081</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.05266516786015</v>
+        <v>0.5631134861785991</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2027,14 +2029,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>28.76595879572924</v>
+        <v>16.94976898282184</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_S_gamma0.96_contrast1.1_equalization29.0.jpg</t>
+          <t>36_2_contrast1.2_gamma0.56_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2044,41 +2046,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8091850850895201</v>
+        <v>0.3779497630087187</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.10435657355578</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>17.02973860440949</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H38" t="n">
+        <v>18.42865654296319</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_C_gamma0.81_equalization17.0.jpg</t>
+          <t>37_7_sharpness0.38_contrast1.1_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.7120604237211253</v>
+        <v>0.4235993156308805</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>12.85073972944022</v>
+        <v>18.35104535772114</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2118,11 +2118,11 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_B_sharpness0.71_brightness13.0.jpg</t>
+          <t>38_0_sharpness0.42_brightness18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2137,36 +2137,34 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.064063475820233</v>
+        <v>0.901032752929954</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.095422848601422</v>
+        <v>0.5141390215416942</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>20.28067531895532</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_3_gamma1.1_brightness3.1.jpg</t>
+          <t>39_3_contrast0.9_gamma0.51_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2181,19 +2179,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9759388963554072</v>
+        <v>0.8072270641696568</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.5060314549962389</v>
+        <v>0.9756139276475073</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2201,14 +2199,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>22.68281626144281</v>
+        <v>21.69845224329648</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_3_sharpness0.98_gamma0.51_equalization23.0.jpg</t>
+          <t>40_3_gamma0.81_contrast0.98_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2216,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2227,7 +2225,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>28.52143189256444</v>
+        <v>1.449512962011245</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2235,7 +2233,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.8650965625135627</v>
+        <v>0.7736810515731432</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2243,14 +2241,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1.099221895877705</v>
+        <v>1.043635687296853</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_7_brightness29.0_gamma0.87_contrast1.1.jpg</t>
+          <t>41_9_brightness1.4_gamma0.77_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2260,41 +2258,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8603080912772436</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>0.2418087674634867</v>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="n">
+        <v>0.4469870440954412</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>11.81558656405688</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H43" t="n">
+        <v>29.05541438858443</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_2_sharpness0.24_equalization12.0.jpg</t>
+          <t>42_I_gamma0.86_sharpness0.45_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2304,39 +2300,41 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9314078285704861</v>
+        <v>1.102311025066577</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.136010650148888</v>
+        <v>0.4093128523431476</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>23.3054705803944</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_0_gamma0.93_contrast1.1_equalization23.0.jpg</t>
+          <t>43_B_contrast1.1_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -2346,41 +2344,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1.039065226175093</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6659888480685717</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>0.394534644988811</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.7978655062743173</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H45" t="n">
+        <v>16.30338957028843</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_8_brightness0.39_gamma0.8.jpg</t>
+          <t>44_C_contrast1.0_gamma0.67_brightness16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2390,16 +2386,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.196611481607038</v>
+        <v>0.8461938194731451</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2407,22 +2403,24 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>25.3386295815543</v>
+        <v>3.837657849056536</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>0.9548715603581812</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_B_contrast1.2_brightness25.0_sharpness0.95.jpg</t>
+          <t>45_E_gamma0.85_brightness3.8.jpg</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2430,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2441,7 +2439,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9424435343797726</v>
+        <v>1.08018535240101</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2449,24 +2447,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.8277234188604745</v>
+        <v>1.183683807071944</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0.478264756453992</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_B_gamma0.94_contrast0.83.jpg</t>
+          <t>46_T_gamma1.1_contrast1.2_sharpness0.48.jpg</t>
         </is>
       </c>
     </row>
@@ -2476,24 +2472,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9931184200044083</v>
+        <v>0.9296285446983948</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5.716685036004973</v>
+        <v>0.6151024294118437</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2510,7 +2506,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_Q_sharpness0.99_equalization5.7.jpg</t>
+          <t>47_8_contrast0.93_gamma0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -2520,39 +2516,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9344520561782022</v>
+        <v>0.6481251252768577</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.014461099083074</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>14.08908306975752</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="H49" t="n">
-        <v>0.2930313598636639</v>
+        <v>0.681367655234838</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_3_gamma0.93_brightness14.0_sharpness0.29.jpg</t>
+          <t>48_C_sharpness0.65_contrast1.0_brightness0.68.jpg</t>
         </is>
       </c>
     </row>
